--- a/project6/Workbook1.xlsx
+++ b/project6/Workbook1.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
   <si>
     <t>1K</t>
   </si>
@@ -51,10 +51,26 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -77,13 +93,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -359,10 +383,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -548,7 +572,189 @@
         <v>13.561999999999999</v>
       </c>
     </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>1.4E-2</v>
+      </c>
+      <c r="C14">
+        <v>0.23799999999999999</v>
+      </c>
+      <c r="D14">
+        <v>0.61199999999999999</v>
+      </c>
+      <c r="E14">
+        <v>2.62</v>
+      </c>
+      <c r="F14">
+        <v>6.931</v>
+      </c>
+      <c r="G14">
+        <v>14.819000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>4</v>
+      </c>
+      <c r="B15">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="C15">
+        <v>0.311</v>
+      </c>
+      <c r="D15">
+        <v>0.57399999999999995</v>
+      </c>
+      <c r="E15">
+        <v>2.4820000000000002</v>
+      </c>
+      <c r="F15">
+        <v>8.1609999999999996</v>
+      </c>
+      <c r="G15">
+        <v>14.458</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="C16">
+        <v>0.33400000000000002</v>
+      </c>
+      <c r="D16">
+        <v>0.63</v>
+      </c>
+      <c r="E16">
+        <v>2.1539999999999999</v>
+      </c>
+      <c r="F16">
+        <v>8.1080000000000005</v>
+      </c>
+      <c r="G16">
+        <v>14.656000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>32</v>
+      </c>
+      <c r="B17">
+        <v>1.2E-2</v>
+      </c>
+      <c r="C17">
+        <v>0.35299999999999998</v>
+      </c>
+      <c r="D17">
+        <v>0.58399999999999996</v>
+      </c>
+      <c r="E17">
+        <v>2.0019999999999998</v>
+      </c>
+      <c r="F17">
+        <v>7.97</v>
+      </c>
+      <c r="G17">
+        <v>16.114999999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>128</v>
+      </c>
+      <c r="B18">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="C18">
+        <v>0.216</v>
+      </c>
+      <c r="D18">
+        <v>0.57899999999999996</v>
+      </c>
+      <c r="E18">
+        <v>2.4119999999999999</v>
+      </c>
+      <c r="F18">
+        <v>8.1780000000000008</v>
+      </c>
+      <c r="G18">
+        <v>14.292</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>512</v>
+      </c>
+      <c r="B19">
+        <v>1.6E-2</v>
+      </c>
+      <c r="C19">
+        <v>0.222</v>
+      </c>
+      <c r="D19">
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="E19">
+        <v>2.069</v>
+      </c>
+      <c r="F19">
+        <v>8.2390000000000008</v>
+      </c>
+      <c r="G19">
+        <v>14.712999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>1024</v>
+      </c>
+      <c r="B20">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="C20">
+        <v>0.307</v>
+      </c>
+      <c r="D20">
+        <v>0.56699999999999995</v>
+      </c>
+      <c r="E20">
+        <v>2.3290000000000002</v>
+      </c>
+      <c r="F20">
+        <v>7.8179999999999996</v>
+      </c>
+      <c r="G20">
+        <v>15.012</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/project6/Workbook1.xlsx
+++ b/project6/Workbook1.xlsx
@@ -32,12 +32,6 @@
     <t>1K</t>
   </si>
   <si>
-    <t>16K</t>
-  </si>
-  <si>
-    <t>256K</t>
-  </si>
-  <si>
     <t>1M</t>
   </si>
   <si>
@@ -45,6 +39,12 @@
   </si>
   <si>
     <t>8M</t>
+  </si>
+  <si>
+    <t>512K</t>
+  </si>
+  <si>
+    <t>2M</t>
   </si>
 </sst>
 </file>
@@ -118,6 +118,5805 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1K</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.013</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.013</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.014</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.014</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.014</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.014</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.016</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>512K</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.724</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.964</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.112</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.733</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.765</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.746</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.733</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1M</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.475</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.493</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.421</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.475</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.448</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.497</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.461</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2M</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2.864</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.429</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.884</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.92</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.943</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.972</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.932</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4M</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$2:$F$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>7.799</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.701</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.201000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.233000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.782</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.13</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.788</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>8M</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$2:$G$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>16.845</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16.788</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17.33</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.966</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17.001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16.398</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13.562</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-1842511824"/>
+        <c:axId val="-1842509504"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-1842511824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1842509504"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-1842509504"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1842511824"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$1:$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1K</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>512K</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1M</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2M</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4M</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8M</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$G$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.013</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.724</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.475</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.864</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.799</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16.845</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$1:$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1K</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>512K</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1M</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2M</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4M</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8M</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$G$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.013</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.964</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.493</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.429</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.701</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16.788</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$1:$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1K</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>512K</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1M</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2M</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4M</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8M</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$4:$G$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.014</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.112</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.421</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.884</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.201000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17.33</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$1:$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1K</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>512K</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1M</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2M</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4M</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8M</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$5:$G$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.014</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.733</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.475</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.92</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.233000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16.966</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$1:$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1K</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>512K</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1M</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2M</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4M</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8M</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$6:$G$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.014</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.765</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.448</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.943</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.782</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17.001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>512</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$1:$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1K</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>512K</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1M</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2M</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4M</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8M</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$7:$G$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.014</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.746</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.497</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.972</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.13</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16.398</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1024</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$1:$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1K</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>512K</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1M</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2M</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4M</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8M</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$8:$G$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.016</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.733</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.461</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.932</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.788</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13.562</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-1734214304"/>
+        <c:axId val="-1734212528"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-1734214304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1734212528"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-1734212528"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1734214304"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1K</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$14:$A$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$14:$B$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.014</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.013</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.013</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.012</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.013</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.016</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.011</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>512K</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$14:$A$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$14:$C$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.763</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.704</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.749</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.737</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1M</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$14:$A$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$14:$D$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.481</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.485</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.486</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.493</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.477</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.898</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.492</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2M</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$14:$A$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$14:$E$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2.62</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.482</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.154</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.412</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.069</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.329</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4M</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$14:$A$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$14:$F$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>6.931</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.161</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.108000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.97</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.178000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.239000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.818</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>8M</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$14:$A$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$14:$G$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>14.819</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.458</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.656</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.115</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14.292</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14.713</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15.012</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-1734296096"/>
+        <c:axId val="-1733406784"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-1734296096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1733406784"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-1733406784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1734296096"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$13:$G$13</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1K</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>512K</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1M</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2M</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4M</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8M</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$14:$G$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.014</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.481</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.62</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.931</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14.819</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$13:$G$13</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1K</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>512K</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1M</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2M</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4M</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8M</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$15:$G$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.013</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.763</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.485</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.482</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.161</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14.458</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$13:$G$13</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1K</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>512K</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1M</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2M</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4M</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8M</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$16:$G$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.013</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.486</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.154</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.108000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14.656</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$13:$G$13</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1K</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>512K</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1M</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2M</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4M</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8M</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$17:$G$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.012</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.704</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.493</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.97</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16.115</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$13:$G$13</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1K</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>512K</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1M</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2M</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4M</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8M</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$18:$G$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.013</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.477</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.412</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.178000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14.292</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>512</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$13:$G$13</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1K</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>512K</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1M</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2M</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4M</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8M</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$19:$G$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.016</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.749</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.898</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.069</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.239000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14.713</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1024</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$13:$G$13</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1K</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>512K</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1M</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2M</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4M</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8M</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$20:$G$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.011</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.737</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.492</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.329</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.818</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15.012</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-1733048048"/>
+        <c:axId val="-1730988976"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-1733048048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1730988976"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-1730988976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1733048048"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>615950</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>717550</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>336550</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>172267</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>168745</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>594762</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>95312</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>750683</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>143597</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>343277</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>70164</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -385,8 +6184,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+    <sheetView tabSelected="1" zoomScale="101" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -396,19 +6195,19 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -419,16 +6218,16 @@
         <v>1.2999999999999999E-2</v>
       </c>
       <c r="C2">
-        <v>0.23799999999999999</v>
+        <v>0.72399999999999998</v>
       </c>
       <c r="D2">
-        <v>0.441</v>
+        <v>1.4750000000000001</v>
       </c>
       <c r="E2">
-        <v>2.4670000000000001</v>
+        <v>2.8639999999999999</v>
       </c>
       <c r="F2">
-        <v>5.7880000000000003</v>
+        <v>7.7990000000000004</v>
       </c>
       <c r="G2">
         <v>16.844999999999999</v>
@@ -442,10 +6241,10 @@
         <v>1.2999999999999999E-2</v>
       </c>
       <c r="C3">
-        <v>0.22</v>
+        <v>0.96399999999999997</v>
       </c>
       <c r="D3">
-        <v>0.39600000000000002</v>
+        <v>1.4930000000000001</v>
       </c>
       <c r="E3">
         <v>2.4289999999999998</v>
@@ -465,13 +6264,13 @@
         <v>1.4E-2</v>
       </c>
       <c r="C4">
-        <v>0.28299999999999997</v>
+        <v>1.1120000000000001</v>
       </c>
       <c r="D4">
-        <v>0.44400000000000001</v>
+        <v>1.421</v>
       </c>
       <c r="E4">
-        <v>1.629</v>
+        <v>2.8839999999999999</v>
       </c>
       <c r="F4">
         <v>8.2010000000000005</v>
@@ -488,13 +6287,13 @@
         <v>1.4E-2</v>
       </c>
       <c r="C5">
-        <v>0.29099999999999998</v>
+        <v>0.73299999999999998</v>
       </c>
       <c r="D5">
-        <v>0.373</v>
+        <v>1.4750000000000001</v>
       </c>
       <c r="E5">
-        <v>1.4179999999999999</v>
+        <v>2.92</v>
       </c>
       <c r="F5">
         <v>8.2330000000000005</v>
@@ -511,13 +6310,13 @@
         <v>1.4E-2</v>
       </c>
       <c r="C6">
-        <v>0.45600000000000002</v>
+        <v>0.76500000000000001</v>
       </c>
       <c r="D6">
-        <v>0.36899999999999999</v>
+        <v>1.448</v>
       </c>
       <c r="E6">
-        <v>2.0939999999999999</v>
+        <v>2.9430000000000001</v>
       </c>
       <c r="F6">
         <v>8.782</v>
@@ -534,13 +6333,13 @@
         <v>1.4E-2</v>
       </c>
       <c r="C7">
-        <v>0.40500000000000003</v>
+        <v>0.746</v>
       </c>
       <c r="D7">
-        <v>0.53200000000000003</v>
+        <v>1.4970000000000001</v>
       </c>
       <c r="E7">
-        <v>2.069</v>
+        <v>2.972</v>
       </c>
       <c r="F7">
         <v>7.13</v>
@@ -557,13 +6356,13 @@
         <v>1.6E-2</v>
       </c>
       <c r="C8">
-        <v>0.26800000000000002</v>
+        <v>0.73299999999999998</v>
       </c>
       <c r="D8">
-        <v>0.53800000000000003</v>
+        <v>1.4610000000000001</v>
       </c>
       <c r="E8">
-        <v>1.6839999999999999</v>
+        <v>2.9319999999999999</v>
       </c>
       <c r="F8">
         <v>8.7880000000000003</v>
@@ -577,19 +6376,19 @@
         <v>0</v>
       </c>
       <c r="C13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" t="s">
         <v>1</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" t="s">
         <v>2</v>
       </c>
-      <c r="E13" t="s">
+      <c r="G13" t="s">
         <v>3</v>
-      </c>
-      <c r="F13" t="s">
-        <v>4</v>
-      </c>
-      <c r="G13" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -600,10 +6399,10 @@
         <v>1.4E-2</v>
       </c>
       <c r="C14">
-        <v>0.23799999999999999</v>
+        <v>0.73</v>
       </c>
       <c r="D14">
-        <v>0.61199999999999999</v>
+        <v>1.4810000000000001</v>
       </c>
       <c r="E14">
         <v>2.62</v>
@@ -623,10 +6422,10 @@
         <v>1.2999999999999999E-2</v>
       </c>
       <c r="C15">
-        <v>0.311</v>
+        <v>0.76300000000000001</v>
       </c>
       <c r="D15">
-        <v>0.57399999999999995</v>
+        <v>1.4850000000000001</v>
       </c>
       <c r="E15">
         <v>2.4820000000000002</v>
@@ -646,10 +6445,10 @@
         <v>1.2999999999999999E-2</v>
       </c>
       <c r="C16">
-        <v>0.33400000000000002</v>
+        <v>0.73</v>
       </c>
       <c r="D16">
-        <v>0.63</v>
+        <v>1.486</v>
       </c>
       <c r="E16">
         <v>2.1539999999999999</v>
@@ -669,10 +6468,10 @@
         <v>1.2E-2</v>
       </c>
       <c r="C17">
-        <v>0.35299999999999998</v>
+        <v>0.70399999999999996</v>
       </c>
       <c r="D17">
-        <v>0.58399999999999996</v>
+        <v>1.4930000000000001</v>
       </c>
       <c r="E17">
         <v>2.0019999999999998</v>
@@ -692,10 +6491,10 @@
         <v>1.2999999999999999E-2</v>
       </c>
       <c r="C18">
-        <v>0.216</v>
+        <v>0.7</v>
       </c>
       <c r="D18">
-        <v>0.57899999999999996</v>
+        <v>1.4770000000000001</v>
       </c>
       <c r="E18">
         <v>2.4119999999999999</v>
@@ -715,10 +6514,10 @@
         <v>1.6E-2</v>
       </c>
       <c r="C19">
-        <v>0.222</v>
+        <v>0.749</v>
       </c>
       <c r="D19">
-        <v>0.57499999999999996</v>
+        <v>1.8979999999999999</v>
       </c>
       <c r="E19">
         <v>2.069</v>
@@ -738,10 +6537,10 @@
         <v>1.0999999999999999E-2</v>
       </c>
       <c r="C20">
-        <v>0.307</v>
+        <v>0.73699999999999999</v>
       </c>
       <c r="D20">
-        <v>0.56699999999999995</v>
+        <v>1.492</v>
       </c>
       <c r="E20">
         <v>2.3290000000000002</v>
@@ -756,5 +6555,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/project6/Workbook1.xlsx
+++ b/project6/Workbook1.xlsx
@@ -246,25 +246,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.013</c:v>
+                  <c:v>13.796</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.013</c:v>
+                  <c:v>20.967</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.014</c:v>
+                  <c:v>20.258</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.014</c:v>
+                  <c:v>13.676</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.014</c:v>
+                  <c:v>13.413</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.014</c:v>
+                  <c:v>20.686</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.016</c:v>
+                  <c:v>12.488</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -346,25 +346,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.724</c:v>
+                  <c:v>1182.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.964</c:v>
+                  <c:v>1269.41</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.112</c:v>
+                  <c:v>994.386</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.733</c:v>
+                  <c:v>1219.479</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.765</c:v>
+                  <c:v>731.6420000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.746</c:v>
+                  <c:v>1118.107</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.733</c:v>
+                  <c:v>725.101</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -446,25 +446,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1.475</c:v>
+                  <c:v>1716.689</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.493</c:v>
+                  <c:v>2516.29</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.421</c:v>
+                  <c:v>1434.176</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.475</c:v>
+                  <c:v>2320.51</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.448</c:v>
+                  <c:v>1515.003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.497</c:v>
+                  <c:v>2288.893</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.461</c:v>
+                  <c:v>1448.357</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -546,25 +546,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>2.864</c:v>
+                  <c:v>4193.725</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.429</c:v>
+                  <c:v>4942.29</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.884</c:v>
+                  <c:v>2743.197</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.92</c:v>
+                  <c:v>3484.104</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.943</c:v>
+                  <c:v>3419.862</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.972</c:v>
+                  <c:v>2516.611</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.932</c:v>
+                  <c:v>3092.812</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -646,25 +646,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>7.799</c:v>
+                  <c:v>7213.091</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.701</c:v>
+                  <c:v>6114.948</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.201000000000001</c:v>
+                  <c:v>4728.411</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.233000000000001</c:v>
+                  <c:v>7127.727</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.782</c:v>
+                  <c:v>5521.32</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.13</c:v>
+                  <c:v>4736.65</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.788</c:v>
+                  <c:v>6568.801</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -746,25 +746,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>16.845</c:v>
+                  <c:v>11652.414</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>16.788</c:v>
+                  <c:v>9467.281999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17.33</c:v>
+                  <c:v>12352.483</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16.966</c:v>
+                  <c:v>13849.421</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>17.001</c:v>
+                  <c:v>13419.69</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>16.398</c:v>
+                  <c:v>9700.235</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>13.562</c:v>
+                  <c:v>11984.257</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -781,11 +781,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1842511824"/>
-        <c:axId val="-1842509504"/>
+        <c:axId val="568495776"/>
+        <c:axId val="568497824"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1842511824"/>
+        <c:axId val="568495776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -828,7 +828,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1842509504"/>
+        <c:crossAx val="568497824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -836,7 +836,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1842509504"/>
+        <c:axId val="568497824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -886,7 +886,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1842511824"/>
+        <c:crossAx val="568495776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1089,22 +1089,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.013</c:v>
+                  <c:v>13.796</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.724</c:v>
+                  <c:v>1182.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.475</c:v>
+                  <c:v>1716.689</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.864</c:v>
+                  <c:v>4193.725</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.799</c:v>
+                  <c:v>7213.091</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>16.845</c:v>
+                  <c:v>11652.414</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1182,22 +1182,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.013</c:v>
+                  <c:v>20.967</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.964</c:v>
+                  <c:v>1269.41</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.493</c:v>
+                  <c:v>2516.29</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.429</c:v>
+                  <c:v>4942.29</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.701</c:v>
+                  <c:v>6114.948</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>16.788</c:v>
+                  <c:v>9467.281999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1275,22 +1275,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.014</c:v>
+                  <c:v>20.258</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.112</c:v>
+                  <c:v>994.386</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.421</c:v>
+                  <c:v>1434.176</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.884</c:v>
+                  <c:v>2743.197</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.201000000000001</c:v>
+                  <c:v>4728.411</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>17.33</c:v>
+                  <c:v>12352.483</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1368,22 +1368,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.014</c:v>
+                  <c:v>13.676</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.733</c:v>
+                  <c:v>1219.479</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.475</c:v>
+                  <c:v>2320.51</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.92</c:v>
+                  <c:v>3484.104</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.233000000000001</c:v>
+                  <c:v>7127.727</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>16.966</c:v>
+                  <c:v>13849.421</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1461,22 +1461,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.014</c:v>
+                  <c:v>13.413</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.765</c:v>
+                  <c:v>731.6420000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.448</c:v>
+                  <c:v>1515.003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.943</c:v>
+                  <c:v>3419.862</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.782</c:v>
+                  <c:v>5521.32</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>17.001</c:v>
+                  <c:v>13419.69</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1554,22 +1554,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.014</c:v>
+                  <c:v>20.686</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.746</c:v>
+                  <c:v>1118.107</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.497</c:v>
+                  <c:v>2288.893</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.972</c:v>
+                  <c:v>2516.611</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.13</c:v>
+                  <c:v>4736.65</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>16.398</c:v>
+                  <c:v>9700.235</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1653,22 +1653,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.016</c:v>
+                  <c:v>12.488</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.733</c:v>
+                  <c:v>725.101</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.461</c:v>
+                  <c:v>1448.357</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.932</c:v>
+                  <c:v>3092.812</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.788</c:v>
+                  <c:v>6568.801</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13.562</c:v>
+                  <c:v>11984.257</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1685,11 +1685,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1734214304"/>
-        <c:axId val="-1734212528"/>
+        <c:axId val="563594832"/>
+        <c:axId val="563597312"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1734214304"/>
+        <c:axId val="563594832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1732,7 +1732,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1734212528"/>
+        <c:crossAx val="563597312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1740,7 +1740,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1734212528"/>
+        <c:axId val="563597312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1790,7 +1790,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1734214304"/>
+        <c:crossAx val="563594832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1997,25 +1997,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.014</c:v>
+                  <c:v>17.284</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.013</c:v>
+                  <c:v>16.57</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.013</c:v>
+                  <c:v>18.933</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.012</c:v>
+                  <c:v>18.504</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.013</c:v>
+                  <c:v>16.594</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.016</c:v>
+                  <c:v>13.355</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.011</c:v>
+                  <c:v>12.901</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2097,25 +2097,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.73</c:v>
+                  <c:v>1245.748</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.763</c:v>
+                  <c:v>723.47</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.73</c:v>
+                  <c:v>1042.739</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.704</c:v>
+                  <c:v>1265.333</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.7</c:v>
+                  <c:v>863.966</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.749</c:v>
+                  <c:v>1006.203</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.737</c:v>
+                  <c:v>897.9349999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2197,25 +2197,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1.481</c:v>
+                  <c:v>1471.805</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.485</c:v>
+                  <c:v>1887.367</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.486</c:v>
+                  <c:v>2069.397</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.493</c:v>
+                  <c:v>1940.981</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.477</c:v>
+                  <c:v>2168.294</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.898</c:v>
+                  <c:v>1788.921</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.492</c:v>
+                  <c:v>2385.285</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2297,25 +2297,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>2.62</c:v>
+                  <c:v>2892.217</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.482</c:v>
+                  <c:v>4359.349</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.154</c:v>
+                  <c:v>3064.457</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.002</c:v>
+                  <c:v>4940.194</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.412</c:v>
+                  <c:v>3192.945</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.069</c:v>
+                  <c:v>4288.269</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.329</c:v>
+                  <c:v>3854.598</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2397,25 +2397,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>6.931</c:v>
+                  <c:v>4771.471</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.161</c:v>
+                  <c:v>5217.945</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.108000000000001</c:v>
+                  <c:v>5094.694</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.97</c:v>
+                  <c:v>5162.239</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.178000000000001</c:v>
+                  <c:v>5323.639</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.239000000000001</c:v>
+                  <c:v>5184.624</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.818</c:v>
+                  <c:v>7212.185</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2497,25 +2497,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>14.819</c:v>
+                  <c:v>10259.801</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14.458</c:v>
+                  <c:v>10002.001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14.656</c:v>
+                  <c:v>9275.523999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16.115</c:v>
+                  <c:v>8909.114</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14.292</c:v>
+                  <c:v>9204.333</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14.713</c:v>
+                  <c:v>9324.477999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15.012</c:v>
+                  <c:v>8906.049</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2532,11 +2532,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1734296096"/>
-        <c:axId val="-1733406784"/>
+        <c:axId val="563636928"/>
+        <c:axId val="563639408"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1734296096"/>
+        <c:axId val="563636928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2579,7 +2579,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1733406784"/>
+        <c:crossAx val="563639408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2587,7 +2587,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1733406784"/>
+        <c:axId val="563639408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2637,7 +2637,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1734296096"/>
+        <c:crossAx val="563636928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2840,22 +2840,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.014</c:v>
+                  <c:v>17.284</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.73</c:v>
+                  <c:v>1245.748</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.481</c:v>
+                  <c:v>1471.805</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.62</c:v>
+                  <c:v>2892.217</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.931</c:v>
+                  <c:v>4771.471</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14.819</c:v>
+                  <c:v>10259.801</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2933,22 +2933,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.013</c:v>
+                  <c:v>16.57</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.763</c:v>
+                  <c:v>723.47</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.485</c:v>
+                  <c:v>1887.367</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.482</c:v>
+                  <c:v>4359.349</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.161</c:v>
+                  <c:v>5217.945</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14.458</c:v>
+                  <c:v>10002.001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3026,22 +3026,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.013</c:v>
+                  <c:v>18.933</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.73</c:v>
+                  <c:v>1042.739</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.486</c:v>
+                  <c:v>2069.397</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.154</c:v>
+                  <c:v>3064.457</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.108000000000001</c:v>
+                  <c:v>5094.694</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14.656</c:v>
+                  <c:v>9275.523999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3119,22 +3119,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.012</c:v>
+                  <c:v>18.504</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.704</c:v>
+                  <c:v>1265.333</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.493</c:v>
+                  <c:v>1940.981</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.002</c:v>
+                  <c:v>4940.194</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.97</c:v>
+                  <c:v>5162.239</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>16.115</c:v>
+                  <c:v>8909.114</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3212,22 +3212,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.013</c:v>
+                  <c:v>16.594</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.7</c:v>
+                  <c:v>863.966</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.477</c:v>
+                  <c:v>2168.294</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.412</c:v>
+                  <c:v>3192.945</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.178000000000001</c:v>
+                  <c:v>5323.639</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14.292</c:v>
+                  <c:v>9204.333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3305,22 +3305,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.016</c:v>
+                  <c:v>13.355</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.749</c:v>
+                  <c:v>1006.203</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.898</c:v>
+                  <c:v>1788.921</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.069</c:v>
+                  <c:v>4288.269</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.239000000000001</c:v>
+                  <c:v>5184.624</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14.713</c:v>
+                  <c:v>9324.477999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3404,22 +3404,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.011</c:v>
+                  <c:v>12.901</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.737</c:v>
+                  <c:v>897.9349999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.492</c:v>
+                  <c:v>2385.285</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.329</c:v>
+                  <c:v>3854.598</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.818</c:v>
+                  <c:v>7212.185</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15.012</c:v>
+                  <c:v>8906.049</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3436,11 +3436,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1733048048"/>
-        <c:axId val="-1730988976"/>
+        <c:axId val="563682432"/>
+        <c:axId val="563684912"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1733048048"/>
+        <c:axId val="563682432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3483,7 +3483,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1730988976"/>
+        <c:crossAx val="563684912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3491,7 +3491,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1730988976"/>
+        <c:axId val="563684912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3541,7 +3541,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1733048048"/>
+        <c:crossAx val="563682432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6185,7 +6185,7 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="101" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:G20"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6215,22 +6215,22 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1.2999999999999999E-2</v>
+        <v>13.795999999999999</v>
       </c>
       <c r="C2">
-        <v>0.72399999999999998</v>
+        <v>1182</v>
       </c>
       <c r="D2">
-        <v>1.4750000000000001</v>
+        <v>1716.6890000000001</v>
       </c>
       <c r="E2">
-        <v>2.8639999999999999</v>
+        <v>4193.7250000000004</v>
       </c>
       <c r="F2">
-        <v>7.7990000000000004</v>
+        <v>7213.0910000000003</v>
       </c>
       <c r="G2">
-        <v>16.844999999999999</v>
+        <v>11652.414000000001</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -6238,22 +6238,22 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>1.2999999999999999E-2</v>
+        <v>20.966999999999999</v>
       </c>
       <c r="C3">
-        <v>0.96399999999999997</v>
+        <v>1269.4100000000001</v>
       </c>
       <c r="D3">
-        <v>1.4930000000000001</v>
+        <v>2516.29</v>
       </c>
       <c r="E3">
-        <v>2.4289999999999998</v>
+        <v>4942.29</v>
       </c>
       <c r="F3">
-        <v>7.7009999999999996</v>
+        <v>6114.9480000000003</v>
       </c>
       <c r="G3">
-        <v>16.788</v>
+        <v>9467.2819999999992</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -6261,22 +6261,22 @@
         <v>16</v>
       </c>
       <c r="B4">
-        <v>1.4E-2</v>
+        <v>20.257999999999999</v>
       </c>
       <c r="C4">
-        <v>1.1120000000000001</v>
+        <v>994.38599999999997</v>
       </c>
       <c r="D4">
-        <v>1.421</v>
+        <v>1434.1759999999999</v>
       </c>
       <c r="E4">
-        <v>2.8839999999999999</v>
+        <v>2743.1970000000001</v>
       </c>
       <c r="F4">
-        <v>8.2010000000000005</v>
+        <v>4728.4110000000001</v>
       </c>
       <c r="G4">
-        <v>17.329999999999998</v>
+        <v>12352.483</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -6284,22 +6284,22 @@
         <v>32</v>
       </c>
       <c r="B5">
-        <v>1.4E-2</v>
+        <v>13.676</v>
       </c>
       <c r="C5">
-        <v>0.73299999999999998</v>
+        <v>1219.479</v>
       </c>
       <c r="D5">
-        <v>1.4750000000000001</v>
+        <v>2320.5100000000002</v>
       </c>
       <c r="E5">
-        <v>2.92</v>
+        <v>3484.1039999999998</v>
       </c>
       <c r="F5">
-        <v>8.2330000000000005</v>
+        <v>7127.7269999999999</v>
       </c>
       <c r="G5">
-        <v>16.966000000000001</v>
+        <v>13849.421</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -6307,22 +6307,22 @@
         <v>128</v>
       </c>
       <c r="B6">
-        <v>1.4E-2</v>
+        <v>13.413</v>
       </c>
       <c r="C6">
-        <v>0.76500000000000001</v>
+        <v>731.64200000000005</v>
       </c>
       <c r="D6">
-        <v>1.448</v>
+        <v>1515.0029999999999</v>
       </c>
       <c r="E6">
-        <v>2.9430000000000001</v>
+        <v>3419.8620000000001</v>
       </c>
       <c r="F6">
-        <v>8.782</v>
+        <v>5521.32</v>
       </c>
       <c r="G6">
-        <v>17.001000000000001</v>
+        <v>13419.69</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -6330,22 +6330,22 @@
         <v>512</v>
       </c>
       <c r="B7">
-        <v>1.4E-2</v>
+        <v>20.686</v>
       </c>
       <c r="C7">
-        <v>0.746</v>
+        <v>1118.107</v>
       </c>
       <c r="D7">
-        <v>1.4970000000000001</v>
+        <v>2288.893</v>
       </c>
       <c r="E7">
-        <v>2.972</v>
+        <v>2516.6109999999999</v>
       </c>
       <c r="F7">
-        <v>7.13</v>
+        <v>4736.6499999999996</v>
       </c>
       <c r="G7">
-        <v>16.398</v>
+        <v>9700.2350000000006</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -6353,22 +6353,22 @@
         <v>1024</v>
       </c>
       <c r="B8">
-        <v>1.6E-2</v>
+        <v>12.488</v>
       </c>
       <c r="C8">
-        <v>0.73299999999999998</v>
+        <v>725.101</v>
       </c>
       <c r="D8">
-        <v>1.4610000000000001</v>
+        <v>1448.357</v>
       </c>
       <c r="E8">
-        <v>2.9319999999999999</v>
+        <v>3092.8119999999999</v>
       </c>
       <c r="F8">
-        <v>8.7880000000000003</v>
+        <v>6568.8010000000004</v>
       </c>
       <c r="G8">
-        <v>13.561999999999999</v>
+        <v>11984.257</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -6396,22 +6396,22 @@
         <v>1</v>
       </c>
       <c r="B14">
-        <v>1.4E-2</v>
+        <v>17.283999999999999</v>
       </c>
       <c r="C14">
-        <v>0.73</v>
+        <v>1245.748</v>
       </c>
       <c r="D14">
-        <v>1.4810000000000001</v>
+        <v>1471.8050000000001</v>
       </c>
       <c r="E14">
-        <v>2.62</v>
+        <v>2892.2170000000001</v>
       </c>
       <c r="F14">
-        <v>6.931</v>
+        <v>4771.4709999999995</v>
       </c>
       <c r="G14">
-        <v>14.819000000000001</v>
+        <v>10259.800999999999</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -6419,22 +6419,22 @@
         <v>4</v>
       </c>
       <c r="B15">
-        <v>1.2999999999999999E-2</v>
+        <v>16.57</v>
       </c>
       <c r="C15">
-        <v>0.76300000000000001</v>
+        <v>723.47</v>
       </c>
       <c r="D15">
-        <v>1.4850000000000001</v>
+        <v>1887.367</v>
       </c>
       <c r="E15">
-        <v>2.4820000000000002</v>
+        <v>4359.3490000000002</v>
       </c>
       <c r="F15">
-        <v>8.1609999999999996</v>
+        <v>5217.9449999999997</v>
       </c>
       <c r="G15">
-        <v>14.458</v>
+        <v>10002.001</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -6442,22 +6442,22 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>1.2999999999999999E-2</v>
+        <v>18.933</v>
       </c>
       <c r="C16">
-        <v>0.73</v>
+        <v>1042.739</v>
       </c>
       <c r="D16">
-        <v>1.486</v>
+        <v>2069.3969999999999</v>
       </c>
       <c r="E16">
-        <v>2.1539999999999999</v>
+        <v>3064.4569999999999</v>
       </c>
       <c r="F16">
-        <v>8.1080000000000005</v>
+        <v>5094.6940000000004</v>
       </c>
       <c r="G16">
-        <v>14.656000000000001</v>
+        <v>9275.5239999999994</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -6465,22 +6465,22 @@
         <v>32</v>
       </c>
       <c r="B17">
-        <v>1.2E-2</v>
+        <v>18.504000000000001</v>
       </c>
       <c r="C17">
-        <v>0.70399999999999996</v>
+        <v>1265.3330000000001</v>
       </c>
       <c r="D17">
-        <v>1.4930000000000001</v>
+        <v>1940.981</v>
       </c>
       <c r="E17">
-        <v>2.0019999999999998</v>
+        <v>4940.1940000000004</v>
       </c>
       <c r="F17">
-        <v>7.97</v>
+        <v>5162.2389999999996</v>
       </c>
       <c r="G17">
-        <v>16.114999999999998</v>
+        <v>8909.1139999999996</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -6488,22 +6488,22 @@
         <v>128</v>
       </c>
       <c r="B18">
-        <v>1.2999999999999999E-2</v>
+        <v>16.594000000000001</v>
       </c>
       <c r="C18">
-        <v>0.7</v>
+        <v>863.96600000000001</v>
       </c>
       <c r="D18">
-        <v>1.4770000000000001</v>
+        <v>2168.2939999999999</v>
       </c>
       <c r="E18">
-        <v>2.4119999999999999</v>
+        <v>3192.9450000000002</v>
       </c>
       <c r="F18">
-        <v>8.1780000000000008</v>
+        <v>5323.6390000000001</v>
       </c>
       <c r="G18">
-        <v>14.292</v>
+        <v>9204.3330000000005</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -6511,22 +6511,22 @@
         <v>512</v>
       </c>
       <c r="B19">
-        <v>1.6E-2</v>
+        <v>13.355</v>
       </c>
       <c r="C19">
-        <v>0.749</v>
+        <v>1006.203</v>
       </c>
       <c r="D19">
-        <v>1.8979999999999999</v>
+        <v>1788.921</v>
       </c>
       <c r="E19">
-        <v>2.069</v>
+        <v>4288.2690000000002</v>
       </c>
       <c r="F19">
-        <v>8.2390000000000008</v>
+        <v>5184.6239999999998</v>
       </c>
       <c r="G19">
-        <v>14.712999999999999</v>
+        <v>9324.4779999999992</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -6534,22 +6534,22 @@
         <v>1024</v>
       </c>
       <c r="B20">
-        <v>1.0999999999999999E-2</v>
+        <v>12.901</v>
       </c>
       <c r="C20">
-        <v>0.73699999999999999</v>
+        <v>897.93499999999995</v>
       </c>
       <c r="D20">
-        <v>1.492</v>
+        <v>2385.2849999999999</v>
       </c>
       <c r="E20">
-        <v>2.3290000000000002</v>
+        <v>3854.598</v>
       </c>
       <c r="F20">
-        <v>7.8179999999999996</v>
+        <v>7212.1850000000004</v>
       </c>
       <c r="G20">
-        <v>15.012</v>
+        <v>8906.0490000000009</v>
       </c>
     </row>
   </sheetData>

--- a/project6/Workbook1.xlsx
+++ b/project6/Workbook1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16460" tabRatio="500"/>
+    <workbookView xWindow="20" yWindow="460" windowWidth="28800" windowHeight="16460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -781,11 +781,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="568495776"/>
-        <c:axId val="568497824"/>
+        <c:axId val="-214744176"/>
+        <c:axId val="-214742816"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="568495776"/>
+        <c:axId val="-214744176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -828,7 +828,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="568497824"/>
+        <c:crossAx val="-214742816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -836,7 +836,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="568497824"/>
+        <c:axId val="-214742816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -886,7 +886,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="568495776"/>
+        <c:crossAx val="-214744176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1685,11 +1685,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="563594832"/>
-        <c:axId val="563597312"/>
+        <c:axId val="-214718352"/>
+        <c:axId val="-214715872"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="563594832"/>
+        <c:axId val="-214718352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1732,7 +1732,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="563597312"/>
+        <c:crossAx val="-214715872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1740,7 +1740,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="563597312"/>
+        <c:axId val="-214715872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1790,7 +1790,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="563594832"/>
+        <c:crossAx val="-214718352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2532,11 +2532,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="563636928"/>
-        <c:axId val="563639408"/>
+        <c:axId val="-214687648"/>
+        <c:axId val="-214685168"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="563636928"/>
+        <c:axId val="-214687648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2579,7 +2579,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="563639408"/>
+        <c:crossAx val="-214685168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2587,7 +2587,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="563639408"/>
+        <c:axId val="-214685168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2637,7 +2637,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="563636928"/>
+        <c:crossAx val="-214687648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3436,11 +3436,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="563682432"/>
-        <c:axId val="563684912"/>
+        <c:axId val="-214636096"/>
+        <c:axId val="-214633616"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="563682432"/>
+        <c:axId val="-214636096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3483,7 +3483,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="563684912"/>
+        <c:crossAx val="-214633616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3491,7 +3491,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="563684912"/>
+        <c:axId val="-214633616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3541,7 +3541,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="563682432"/>
+        <c:crossAx val="-214636096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3585,6 +3585,586 @@
         </a:p>
       </c:txPr>
     </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>Reduction</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+              <a:t>Performance</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+              <a:t>(local</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+              <a:t>size</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+              <a:t>=</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+              <a:t>32)</a:t>
+            </a:r>
+            <a:endParaRPr lang="is-IS"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$22:$I$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>64.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$23:$I$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1570.919</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2231.946</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2741.834</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3045.247</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3200.265</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4010.672</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4435.883</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4960.188</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-157743632"/>
+        <c:axId val="-157745952"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-157743632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>Array</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>Size</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>(Mega</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>Numbers)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-157745952"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-157745952"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>Mega</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>Multis</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>and</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>Reductions</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>Per</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>Second</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-157743632"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -3782,6 +4362,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -5794,18 +6414,534 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>448087</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>615950</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>62686</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>158750</xdr:rowOff>
     </xdr:to>
@@ -5828,14 +6964,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>717550</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>164286</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>336550</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>613187</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
@@ -5858,14 +6994,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>172267</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>448904</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>168745</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>594762</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>41498</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>95312</xdr:rowOff>
     </xdr:to>
@@ -5888,14 +7024,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>750683</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>197419</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>143597</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>343277</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>619914</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>70164</xdr:rowOff>
     </xdr:to>
@@ -5911,6 +7047,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>650089</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>105874</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>242683</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>32440</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -6182,10 +7348,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="101" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="101" workbookViewId="0">
+      <selection activeCell="O40" sqref="O40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6460,7 +7626,7 @@
         <v>9275.5239999999994</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>32</v>
       </c>
@@ -6483,7 +7649,7 @@
         <v>8909.1139999999996</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>128</v>
       </c>
@@ -6506,7 +7672,7 @@
         <v>9204.3330000000005</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>512</v>
       </c>
@@ -6529,7 +7695,7 @@
         <v>9324.4779999999992</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>1024</v>
       </c>
@@ -6550,6 +7716,61 @@
       </c>
       <c r="G20">
         <v>8906.0490000000009</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22">
+        <v>4</v>
+      </c>
+      <c r="E22">
+        <v>6</v>
+      </c>
+      <c r="F22">
+        <v>8</v>
+      </c>
+      <c r="G22">
+        <v>16</v>
+      </c>
+      <c r="H22">
+        <v>32</v>
+      </c>
+      <c r="I22">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>32</v>
+      </c>
+      <c r="B23">
+        <v>1570.9190000000001</v>
+      </c>
+      <c r="C23">
+        <v>2231.9459999999999</v>
+      </c>
+      <c r="D23">
+        <v>2741.8339999999998</v>
+      </c>
+      <c r="E23">
+        <v>3045.2469999999998</v>
+      </c>
+      <c r="F23">
+        <v>3200.2649999999999</v>
+      </c>
+      <c r="G23">
+        <v>4010.672</v>
+      </c>
+      <c r="H23">
+        <v>4435.8829999999998</v>
+      </c>
+      <c r="I23">
+        <v>4960.1880000000001</v>
       </c>
     </row>
   </sheetData>

--- a/project6/Workbook1.xlsx
+++ b/project6/Workbook1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="20" yWindow="460" windowWidth="28800" windowHeight="16460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -93,8 +93,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -103,11 +109,17 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="11">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -246,25 +258,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>13.796</c:v>
+                  <c:v>12.937</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20.967</c:v>
+                  <c:v>12.942</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20.258</c:v>
+                  <c:v>11.311</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13.676</c:v>
+                  <c:v>12.746</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13.413</c:v>
+                  <c:v>14.681</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>20.686</c:v>
+                  <c:v>9.857</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12.488</c:v>
+                  <c:v>15.472</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -346,25 +358,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1182.0</c:v>
+                  <c:v>36.989</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1269.41</c:v>
+                  <c:v>403.054</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>994.386</c:v>
+                  <c:v>51.288</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1219.479</c:v>
+                  <c:v>3.625</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>731.6420000000001</c:v>
+                  <c:v>885.9160000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1118.107</c:v>
+                  <c:v>421.161</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>725.101</c:v>
+                  <c:v>571.46</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -446,25 +458,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1716.689</c:v>
+                  <c:v>189.549</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2516.29</c:v>
+                  <c:v>93.55</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1434.176</c:v>
+                  <c:v>599.921</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2320.51</c:v>
+                  <c:v>549.504</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1515.003</c:v>
+                  <c:v>1800.294</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2288.893</c:v>
+                  <c:v>136.902</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1448.357</c:v>
+                  <c:v>1941.541</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -546,25 +558,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>4193.725</c:v>
+                  <c:v>341.48</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4942.29</c:v>
+                  <c:v>550.849</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2743.197</c:v>
+                  <c:v>2059.355</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3484.104</c:v>
+                  <c:v>1011.505</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3419.862</c:v>
+                  <c:v>2274.756</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2516.611</c:v>
+                  <c:v>3702.664</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3092.812</c:v>
+                  <c:v>2674.969</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -646,25 +658,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>7213.091</c:v>
+                  <c:v>356.207</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6114.948</c:v>
+                  <c:v>1188.902</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4728.411</c:v>
+                  <c:v>3181.765</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7127.727</c:v>
+                  <c:v>3544.414</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5521.32</c:v>
+                  <c:v>4368.411</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4736.65</c:v>
+                  <c:v>298.109</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6568.801</c:v>
+                  <c:v>4835.685</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -746,25 +758,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>11652.414</c:v>
+                  <c:v>361.557</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9467.281999999999</c:v>
+                  <c:v>1323.079</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12352.483</c:v>
+                  <c:v>65.479</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13849.421</c:v>
+                  <c:v>6328.866</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13419.69</c:v>
+                  <c:v>2810.842</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9700.235</c:v>
+                  <c:v>2355.059</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11984.257</c:v>
+                  <c:v>81.784</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -781,11 +793,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-214744176"/>
-        <c:axId val="-214742816"/>
+        <c:axId val="-1918472064"/>
+        <c:axId val="-1918470000"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-214744176"/>
+        <c:axId val="-1918472064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -828,7 +840,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-214742816"/>
+        <c:crossAx val="-1918470000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -836,7 +848,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-214742816"/>
+        <c:axId val="-1918470000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -886,7 +898,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-214744176"/>
+        <c:crossAx val="-1918472064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1089,22 +1101,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>13.796</c:v>
+                  <c:v>12.937</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1182.0</c:v>
+                  <c:v>36.989</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1716.689</c:v>
+                  <c:v>189.549</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4193.725</c:v>
+                  <c:v>341.48</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7213.091</c:v>
+                  <c:v>356.207</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11652.414</c:v>
+                  <c:v>361.557</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1182,22 +1194,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>20.967</c:v>
+                  <c:v>12.942</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1269.41</c:v>
+                  <c:v>403.054</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2516.29</c:v>
+                  <c:v>93.55</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4942.29</c:v>
+                  <c:v>550.849</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6114.948</c:v>
+                  <c:v>1188.902</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9467.281999999999</c:v>
+                  <c:v>1323.079</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1275,22 +1287,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>20.258</c:v>
+                  <c:v>11.311</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>994.386</c:v>
+                  <c:v>51.288</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1434.176</c:v>
+                  <c:v>599.921</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2743.197</c:v>
+                  <c:v>2059.355</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4728.411</c:v>
+                  <c:v>3181.765</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12352.483</c:v>
+                  <c:v>65.479</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1368,22 +1380,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>13.676</c:v>
+                  <c:v>12.746</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1219.479</c:v>
+                  <c:v>3.625</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2320.51</c:v>
+                  <c:v>549.504</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3484.104</c:v>
+                  <c:v>1011.505</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7127.727</c:v>
+                  <c:v>3544.414</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13849.421</c:v>
+                  <c:v>6328.866</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1461,22 +1473,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>13.413</c:v>
+                  <c:v>14.681</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>731.6420000000001</c:v>
+                  <c:v>885.9160000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1515.003</c:v>
+                  <c:v>1800.294</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3419.862</c:v>
+                  <c:v>2274.756</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5521.32</c:v>
+                  <c:v>4368.411</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13419.69</c:v>
+                  <c:v>2810.842</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1554,22 +1566,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>20.686</c:v>
+                  <c:v>9.857</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1118.107</c:v>
+                  <c:v>421.161</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2288.893</c:v>
+                  <c:v>136.902</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2516.611</c:v>
+                  <c:v>3702.664</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4736.65</c:v>
+                  <c:v>298.109</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9700.235</c:v>
+                  <c:v>2355.059</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1653,22 +1665,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>12.488</c:v>
+                  <c:v>15.472</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>725.101</c:v>
+                  <c:v>571.46</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1448.357</c:v>
+                  <c:v>1941.541</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3092.812</c:v>
+                  <c:v>2674.969</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6568.801</c:v>
+                  <c:v>4835.685</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11984.257</c:v>
+                  <c:v>81.784</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1685,11 +1697,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-214718352"/>
-        <c:axId val="-214715872"/>
+        <c:axId val="-1967969728"/>
+        <c:axId val="-1967967248"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-214718352"/>
+        <c:axId val="-1967969728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1732,7 +1744,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-214715872"/>
+        <c:crossAx val="-1967967248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1740,7 +1752,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-214715872"/>
+        <c:axId val="-1967967248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1790,7 +1802,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-214718352"/>
+        <c:crossAx val="-1967969728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2532,11 +2544,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-214687648"/>
-        <c:axId val="-214685168"/>
+        <c:axId val="-1967922448"/>
+        <c:axId val="-1967919968"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-214687648"/>
+        <c:axId val="-1967922448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2579,7 +2591,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-214685168"/>
+        <c:crossAx val="-1967919968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2587,7 +2599,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-214685168"/>
+        <c:axId val="-1967919968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2637,7 +2649,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-214687648"/>
+        <c:crossAx val="-1967922448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3436,11 +3448,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-214636096"/>
-        <c:axId val="-214633616"/>
+        <c:axId val="-1918428912"/>
+        <c:axId val="-1918426432"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-214636096"/>
+        <c:axId val="-1918428912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3483,7 +3495,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-214633616"/>
+        <c:crossAx val="-1918426432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3491,7 +3503,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-214633616"/>
+        <c:axId val="-1918426432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3541,7 +3553,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-214636096"/>
+        <c:crossAx val="-1918428912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3853,11 +3865,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-157743632"/>
-        <c:axId val="-157745952"/>
+        <c:axId val="-1918396320"/>
+        <c:axId val="-1918392272"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-157743632"/>
+        <c:axId val="-1918396320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3995,12 +4007,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-157745952"/>
+        <c:crossAx val="-1918392272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-157745952"/>
+        <c:axId val="-1918392272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4153,7 +4165,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-157743632"/>
+        <c:crossAx val="-1918396320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6934,14 +6946,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>448087</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>108578</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>62686</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>553078</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>158750</xdr:rowOff>
     </xdr:to>
@@ -6964,14 +6976,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>164286</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>654678</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>613187</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>273678</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
@@ -6994,14 +7006,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>448904</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>109395</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>168745</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>41498</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>531890</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>95312</xdr:rowOff>
     </xdr:to>
@@ -7024,14 +7036,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>197419</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>687811</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>143597</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>619914</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>280405</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>70164</xdr:rowOff>
     </xdr:to>
@@ -7350,8 +7362,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="101" workbookViewId="0">
-      <selection activeCell="O40" sqref="O40"/>
+    <sheetView tabSelected="1" zoomScale="101" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7381,22 +7393,22 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>13.795999999999999</v>
+        <v>12.936999999999999</v>
       </c>
       <c r="C2">
-        <v>1182</v>
+        <v>36.988999999999997</v>
       </c>
       <c r="D2">
-        <v>1716.6890000000001</v>
+        <v>189.54900000000001</v>
       </c>
       <c r="E2">
-        <v>4193.7250000000004</v>
+        <v>341.48</v>
       </c>
       <c r="F2">
-        <v>7213.0910000000003</v>
+        <v>356.20699999999999</v>
       </c>
       <c r="G2">
-        <v>11652.414000000001</v>
+        <v>361.55700000000002</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -7404,22 +7416,22 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>20.966999999999999</v>
+        <v>12.942</v>
       </c>
       <c r="C3">
-        <v>1269.4100000000001</v>
+        <v>403.05399999999997</v>
       </c>
       <c r="D3">
-        <v>2516.29</v>
+        <v>93.55</v>
       </c>
       <c r="E3">
-        <v>4942.29</v>
+        <v>550.84900000000005</v>
       </c>
       <c r="F3">
-        <v>6114.9480000000003</v>
+        <v>1188.902</v>
       </c>
       <c r="G3">
-        <v>9467.2819999999992</v>
+        <v>1323.079</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -7427,22 +7439,22 @@
         <v>16</v>
       </c>
       <c r="B4">
-        <v>20.257999999999999</v>
+        <v>11.311</v>
       </c>
       <c r="C4">
-        <v>994.38599999999997</v>
+        <v>51.287999999999997</v>
       </c>
       <c r="D4">
-        <v>1434.1759999999999</v>
+        <v>599.92100000000005</v>
       </c>
       <c r="E4">
-        <v>2743.1970000000001</v>
+        <v>2059.355</v>
       </c>
       <c r="F4">
-        <v>4728.4110000000001</v>
+        <v>3181.7649999999999</v>
       </c>
       <c r="G4">
-        <v>12352.483</v>
+        <v>65.478999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -7450,22 +7462,22 @@
         <v>32</v>
       </c>
       <c r="B5">
-        <v>13.676</v>
+        <v>12.746</v>
       </c>
       <c r="C5">
-        <v>1219.479</v>
+        <v>3.625</v>
       </c>
       <c r="D5">
-        <v>2320.5100000000002</v>
+        <v>549.50400000000002</v>
       </c>
       <c r="E5">
-        <v>3484.1039999999998</v>
+        <v>1011.505</v>
       </c>
       <c r="F5">
-        <v>7127.7269999999999</v>
+        <v>3544.4140000000002</v>
       </c>
       <c r="G5">
-        <v>13849.421</v>
+        <v>6328.866</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -7473,22 +7485,22 @@
         <v>128</v>
       </c>
       <c r="B6">
-        <v>13.413</v>
+        <v>14.680999999999999</v>
       </c>
       <c r="C6">
-        <v>731.64200000000005</v>
+        <v>885.91600000000005</v>
       </c>
       <c r="D6">
-        <v>1515.0029999999999</v>
+        <v>1800.2940000000001</v>
       </c>
       <c r="E6">
-        <v>3419.8620000000001</v>
+        <v>2274.7559999999999</v>
       </c>
       <c r="F6">
-        <v>5521.32</v>
+        <v>4368.4110000000001</v>
       </c>
       <c r="G6">
-        <v>13419.69</v>
+        <v>2810.8420000000001</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -7496,22 +7508,22 @@
         <v>512</v>
       </c>
       <c r="B7">
-        <v>20.686</v>
+        <v>9.8569999999999993</v>
       </c>
       <c r="C7">
-        <v>1118.107</v>
+        <v>421.161</v>
       </c>
       <c r="D7">
-        <v>2288.893</v>
+        <v>136.90199999999999</v>
       </c>
       <c r="E7">
-        <v>2516.6109999999999</v>
+        <v>3702.6640000000002</v>
       </c>
       <c r="F7">
-        <v>4736.6499999999996</v>
+        <v>298.10899999999998</v>
       </c>
       <c r="G7">
-        <v>9700.2350000000006</v>
+        <v>2355.0590000000002</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -7519,22 +7531,22 @@
         <v>1024</v>
       </c>
       <c r="B8">
-        <v>12.488</v>
+        <v>15.472</v>
       </c>
       <c r="C8">
-        <v>725.101</v>
+        <v>571.46</v>
       </c>
       <c r="D8">
-        <v>1448.357</v>
+        <v>1941.5409999999999</v>
       </c>
       <c r="E8">
-        <v>3092.8119999999999</v>
+        <v>2674.9690000000001</v>
       </c>
       <c r="F8">
-        <v>6568.8010000000004</v>
+        <v>4835.6850000000004</v>
       </c>
       <c r="G8">
-        <v>11984.257</v>
+        <v>81.784000000000006</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">

--- a/project6/Workbook1.xlsx
+++ b/project6/Workbook1.xlsx
@@ -258,25 +258,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>12.937</c:v>
+                  <c:v>12.634</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12.942</c:v>
+                  <c:v>12.157</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11.311</c:v>
+                  <c:v>9.381</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12.746</c:v>
+                  <c:v>17.012</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14.681</c:v>
+                  <c:v>12.836</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.857</c:v>
+                  <c:v>15.245</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15.472</c:v>
+                  <c:v>16.843</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -358,25 +358,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>36.989</c:v>
+                  <c:v>297.75</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>403.054</c:v>
+                  <c:v>730.2670000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>51.288</c:v>
+                  <c:v>1044.486</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.625</c:v>
+                  <c:v>1382.496</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>885.9160000000001</c:v>
+                  <c:v>1492.512</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>421.161</c:v>
+                  <c:v>1423.752</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>571.46</c:v>
+                  <c:v>1183.366</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -458,25 +458,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>189.549</c:v>
+                  <c:v>335.415</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>93.55</c:v>
+                  <c:v>1028.4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>599.921</c:v>
+                  <c:v>1924.526</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>549.504</c:v>
+                  <c:v>2127.235</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1800.294</c:v>
+                  <c:v>2248.31</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>136.902</c:v>
+                  <c:v>2774.568</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1941.541</c:v>
+                  <c:v>2697.739</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -558,25 +558,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>341.48</c:v>
+                  <c:v>347.764</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>550.849</c:v>
+                  <c:v>1199.128</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2059.355</c:v>
+                  <c:v>2953.169</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1011.505</c:v>
+                  <c:v>3769.023</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2274.756</c:v>
+                  <c:v>4528.479</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3702.664</c:v>
+                  <c:v>4477.334</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2674.969</c:v>
+                  <c:v>4477.87</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -658,25 +658,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>356.207</c:v>
+                  <c:v>357.583</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1188.902</c:v>
+                  <c:v>1304.054</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3181.765</c:v>
+                  <c:v>3558.433</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3544.414</c:v>
+                  <c:v>5131.112</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4368.411</c:v>
+                  <c:v>6110.645</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>298.109</c:v>
+                  <c:v>6356.547</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4835.685</c:v>
+                  <c:v>6149.519</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -758,25 +758,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>361.557</c:v>
+                  <c:v>368.02</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1323.079</c:v>
+                  <c:v>1405.909</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>65.479</c:v>
+                  <c:v>4658.192</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6328.866</c:v>
+                  <c:v>6913.257</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2810.842</c:v>
+                  <c:v>8814.017</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2355.059</c:v>
+                  <c:v>9918.18</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>81.784</c:v>
+                  <c:v>9732.953</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -793,11 +793,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1918472064"/>
-        <c:axId val="-1918470000"/>
+        <c:axId val="1313131648"/>
+        <c:axId val="1313133008"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1918472064"/>
+        <c:axId val="1313131648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -840,7 +840,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1918470000"/>
+        <c:crossAx val="1313133008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -848,7 +848,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1918470000"/>
+        <c:axId val="1313133008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -898,7 +898,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1918472064"/>
+        <c:crossAx val="1313131648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1101,22 +1101,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>12.937</c:v>
+                  <c:v>12.634</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>36.989</c:v>
+                  <c:v>297.75</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>189.549</c:v>
+                  <c:v>335.415</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>341.48</c:v>
+                  <c:v>347.764</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>356.207</c:v>
+                  <c:v>357.583</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>361.557</c:v>
+                  <c:v>368.02</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1194,22 +1194,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>12.942</c:v>
+                  <c:v>12.157</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>403.054</c:v>
+                  <c:v>730.2670000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>93.55</c:v>
+                  <c:v>1028.4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>550.849</c:v>
+                  <c:v>1199.128</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1188.902</c:v>
+                  <c:v>1304.054</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1323.079</c:v>
+                  <c:v>1405.909</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1287,22 +1287,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>11.311</c:v>
+                  <c:v>9.381</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>51.288</c:v>
+                  <c:v>1044.486</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>599.921</c:v>
+                  <c:v>1924.526</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2059.355</c:v>
+                  <c:v>2953.169</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3181.765</c:v>
+                  <c:v>3558.433</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>65.479</c:v>
+                  <c:v>4658.192</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1380,22 +1380,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>12.746</c:v>
+                  <c:v>17.012</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.625</c:v>
+                  <c:v>1382.496</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>549.504</c:v>
+                  <c:v>2127.235</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1011.505</c:v>
+                  <c:v>3769.023</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3544.414</c:v>
+                  <c:v>5131.112</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6328.866</c:v>
+                  <c:v>6913.257</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1473,22 +1473,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>14.681</c:v>
+                  <c:v>12.836</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>885.9160000000001</c:v>
+                  <c:v>1492.512</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1800.294</c:v>
+                  <c:v>2248.31</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2274.756</c:v>
+                  <c:v>4528.479</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4368.411</c:v>
+                  <c:v>6110.645</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2810.842</c:v>
+                  <c:v>8814.017</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1566,22 +1566,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>9.857</c:v>
+                  <c:v>15.245</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>421.161</c:v>
+                  <c:v>1423.752</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>136.902</c:v>
+                  <c:v>2774.568</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3702.664</c:v>
+                  <c:v>4477.334</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>298.109</c:v>
+                  <c:v>6356.547</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2355.059</c:v>
+                  <c:v>9918.18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1665,22 +1665,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>15.472</c:v>
+                  <c:v>16.843</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>571.46</c:v>
+                  <c:v>1183.366</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1941.541</c:v>
+                  <c:v>2697.739</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2674.969</c:v>
+                  <c:v>4477.87</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4835.685</c:v>
+                  <c:v>6149.519</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>81.784</c:v>
+                  <c:v>9732.953</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1697,11 +1697,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1967969728"/>
-        <c:axId val="-1967967248"/>
+        <c:axId val="1313161088"/>
+        <c:axId val="1313162880"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1967969728"/>
+        <c:axId val="1313161088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1744,7 +1744,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1967967248"/>
+        <c:crossAx val="1313162880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1752,7 +1752,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1967967248"/>
+        <c:axId val="1313162880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1802,7 +1802,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1967969728"/>
+        <c:crossAx val="1313161088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2544,11 +2544,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1967922448"/>
-        <c:axId val="-1967919968"/>
+        <c:axId val="1313208048"/>
+        <c:axId val="1313210528"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1967922448"/>
+        <c:axId val="1313208048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2591,7 +2591,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1967919968"/>
+        <c:crossAx val="1313210528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2599,7 +2599,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1967919968"/>
+        <c:axId val="1313210528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2649,7 +2649,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1967922448"/>
+        <c:crossAx val="1313208048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3448,11 +3448,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1918428912"/>
-        <c:axId val="-1918426432"/>
+        <c:axId val="1313253504"/>
+        <c:axId val="1313255984"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1918428912"/>
+        <c:axId val="1313253504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3495,7 +3495,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1918426432"/>
+        <c:crossAx val="1313255984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3503,7 +3503,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1918426432"/>
+        <c:axId val="1313255984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3553,7 +3553,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1918428912"/>
+        <c:crossAx val="1313253504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3865,11 +3865,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1918396320"/>
-        <c:axId val="-1918392272"/>
+        <c:axId val="1313263312"/>
+        <c:axId val="1313267360"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1918396320"/>
+        <c:axId val="1313263312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4007,12 +4007,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1918392272"/>
+        <c:crossAx val="1313267360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1918392272"/>
+        <c:axId val="1313267360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4165,7 +4165,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1918396320"/>
+        <c:crossAx val="1313263312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7363,7 +7363,7 @@
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="101" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7393,22 +7393,22 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>12.936999999999999</v>
+        <v>12.634</v>
       </c>
       <c r="C2">
-        <v>36.988999999999997</v>
+        <v>297.75</v>
       </c>
       <c r="D2">
-        <v>189.54900000000001</v>
+        <v>335.41500000000002</v>
       </c>
       <c r="E2">
-        <v>341.48</v>
+        <v>347.76400000000001</v>
       </c>
       <c r="F2">
-        <v>356.20699999999999</v>
+        <v>357.58300000000003</v>
       </c>
       <c r="G2">
-        <v>361.55700000000002</v>
+        <v>368.02</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -7416,22 +7416,22 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>12.942</v>
+        <v>12.157</v>
       </c>
       <c r="C3">
-        <v>403.05399999999997</v>
+        <v>730.26700000000005</v>
       </c>
       <c r="D3">
-        <v>93.55</v>
+        <v>1028.4000000000001</v>
       </c>
       <c r="E3">
-        <v>550.84900000000005</v>
+        <v>1199.1279999999999</v>
       </c>
       <c r="F3">
-        <v>1188.902</v>
+        <v>1304.0540000000001</v>
       </c>
       <c r="G3">
-        <v>1323.079</v>
+        <v>1405.9090000000001</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -7439,22 +7439,22 @@
         <v>16</v>
       </c>
       <c r="B4">
-        <v>11.311</v>
+        <v>9.3810000000000002</v>
       </c>
       <c r="C4">
-        <v>51.287999999999997</v>
+        <v>1044.4860000000001</v>
       </c>
       <c r="D4">
-        <v>599.92100000000005</v>
+        <v>1924.5260000000001</v>
       </c>
       <c r="E4">
-        <v>2059.355</v>
+        <v>2953.1689999999999</v>
       </c>
       <c r="F4">
-        <v>3181.7649999999999</v>
+        <v>3558.433</v>
       </c>
       <c r="G4">
-        <v>65.478999999999999</v>
+        <v>4658.192</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -7462,22 +7462,22 @@
         <v>32</v>
       </c>
       <c r="B5">
-        <v>12.746</v>
+        <v>17.012</v>
       </c>
       <c r="C5">
-        <v>3.625</v>
+        <v>1382.4960000000001</v>
       </c>
       <c r="D5">
-        <v>549.50400000000002</v>
+        <v>2127.2350000000001</v>
       </c>
       <c r="E5">
-        <v>1011.505</v>
+        <v>3769.0230000000001</v>
       </c>
       <c r="F5">
-        <v>3544.4140000000002</v>
+        <v>5131.1120000000001</v>
       </c>
       <c r="G5">
-        <v>6328.866</v>
+        <v>6913.2569999999996</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -7485,22 +7485,22 @@
         <v>128</v>
       </c>
       <c r="B6">
-        <v>14.680999999999999</v>
+        <v>12.836</v>
       </c>
       <c r="C6">
-        <v>885.91600000000005</v>
+        <v>1492.5119999999999</v>
       </c>
       <c r="D6">
-        <v>1800.2940000000001</v>
+        <v>2248.31</v>
       </c>
       <c r="E6">
-        <v>2274.7559999999999</v>
+        <v>4528.4790000000003</v>
       </c>
       <c r="F6">
-        <v>4368.4110000000001</v>
+        <v>6110.6450000000004</v>
       </c>
       <c r="G6">
-        <v>2810.8420000000001</v>
+        <v>8814.0169999999998</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -7508,22 +7508,22 @@
         <v>512</v>
       </c>
       <c r="B7">
-        <v>9.8569999999999993</v>
+        <v>15.244999999999999</v>
       </c>
       <c r="C7">
-        <v>421.161</v>
+        <v>1423.752</v>
       </c>
       <c r="D7">
-        <v>136.90199999999999</v>
+        <v>2774.5680000000002</v>
       </c>
       <c r="E7">
-        <v>3702.6640000000002</v>
+        <v>4477.3339999999998</v>
       </c>
       <c r="F7">
-        <v>298.10899999999998</v>
+        <v>6356.5469999999996</v>
       </c>
       <c r="G7">
-        <v>2355.0590000000002</v>
+        <v>9918.18</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -7531,22 +7531,22 @@
         <v>1024</v>
       </c>
       <c r="B8">
-        <v>15.472</v>
+        <v>16.843</v>
       </c>
       <c r="C8">
-        <v>571.46</v>
+        <v>1183.366</v>
       </c>
       <c r="D8">
-        <v>1941.5409999999999</v>
+        <v>2697.739</v>
       </c>
       <c r="E8">
-        <v>2674.9690000000001</v>
+        <v>4477.87</v>
       </c>
       <c r="F8">
-        <v>4835.6850000000004</v>
+        <v>6149.5190000000002</v>
       </c>
       <c r="G8">
-        <v>81.784000000000006</v>
+        <v>9732.9529999999995</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">

--- a/project6/Workbook1.xlsx
+++ b/project6/Workbook1.xlsx
@@ -93,8 +93,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="11">
+  <cellStyleXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -109,17 +113,21 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="11">
+  <cellStyles count="15">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -147,6 +155,40 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>Multiply</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>Performance</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -793,16 +835,89 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1313131648"/>
-        <c:axId val="1313133008"/>
+        <c:axId val="1360183568"/>
+        <c:axId val="1360058064"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1313131648"/>
+        <c:axId val="1360183568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>Local</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+                  <a:t>Work</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+                  <a:t>Size</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -840,7 +955,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1313133008"/>
+        <c:crossAx val="1360058064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -848,7 +963,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1313133008"/>
+        <c:axId val="1360058064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -868,6 +983,87 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>Mega</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>Multiplies</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>Per</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>Second</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -898,7 +1094,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1313131648"/>
+        <c:crossAx val="1360183568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -911,7 +1107,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="r"/>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -994,6 +1190,40 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>Multiply</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>Performance</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -1697,16 +1927,89 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1313161088"/>
-        <c:axId val="1313162880"/>
+        <c:axId val="1375845968"/>
+        <c:axId val="1375847328"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1313161088"/>
+        <c:axId val="1375845968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>Global</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+                  <a:t>Work</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+                  <a:t>Size</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1744,7 +2047,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1313162880"/>
+        <c:crossAx val="1375847328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1752,7 +2055,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1313162880"/>
+        <c:axId val="1375847328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1772,6 +2075,87 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>Mega</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+                  <a:t>Multiplies</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+                  <a:t>Per</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+                  <a:t>Second</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1802,7 +2186,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1313161088"/>
+        <c:crossAx val="1375845968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1815,7 +2199,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="r"/>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -1898,6 +2282,40 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>Multiply-Add</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+              <a:t>Performance</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -2009,25 +2427,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>17.284</c:v>
+                  <c:v>12.196</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>16.57</c:v>
+                  <c:v>12.775</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18.933</c:v>
+                  <c:v>12.507</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>18.504</c:v>
+                  <c:v>12.503</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16.594</c:v>
+                  <c:v>17.969</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13.355</c:v>
+                  <c:v>12.858</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12.901</c:v>
+                  <c:v>16.946</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2109,25 +2527,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1245.748</c:v>
+                  <c:v>293.998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>723.47</c:v>
+                  <c:v>749.675</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1042.739</c:v>
+                  <c:v>1121.229</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1265.333</c:v>
+                  <c:v>1006.628</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>863.966</c:v>
+                  <c:v>1349.102</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1006.203</c:v>
+                  <c:v>1015.784</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>897.9349999999999</c:v>
+                  <c:v>1334.807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2209,25 +2627,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1471.805</c:v>
+                  <c:v>314.318</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1887.367</c:v>
+                  <c:v>840.4349999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2069.397</c:v>
+                  <c:v>1637.602</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1940.981</c:v>
+                  <c:v>1820.887</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2168.294</c:v>
+                  <c:v>2526.458</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1788.921</c:v>
+                  <c:v>2587.173</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2385.285</c:v>
+                  <c:v>2472.643</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2309,25 +2727,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>2892.217</c:v>
+                  <c:v>338.996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4359.349</c:v>
+                  <c:v>1145.398</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3064.457</c:v>
+                  <c:v>2630.931</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4940.194</c:v>
+                  <c:v>3461.241</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3192.945</c:v>
+                  <c:v>3716.582</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4288.269</c:v>
+                  <c:v>3607.215</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3854.598</c:v>
+                  <c:v>3828.932</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2409,25 +2827,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>4771.471</c:v>
+                  <c:v>350.037</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5217.945</c:v>
+                  <c:v>1280.855</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5094.694</c:v>
+                  <c:v>3629.013</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5162.239</c:v>
+                  <c:v>4598.781</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5323.639</c:v>
+                  <c:v>5983.486</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5184.624</c:v>
+                  <c:v>6065.366</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7212.185</c:v>
+                  <c:v>5989.895</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2509,25 +2927,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>10259.801</c:v>
+                  <c:v>356.878</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10002.001</c:v>
+                  <c:v>1358.077</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9275.523999999999</c:v>
+                  <c:v>4446.899</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8909.114</c:v>
+                  <c:v>6537.135</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9204.333</c:v>
+                  <c:v>8567.375</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9324.477999999999</c:v>
+                  <c:v>7923.491</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8906.049</c:v>
+                  <c:v>8338.278</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2544,16 +2962,89 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1313208048"/>
-        <c:axId val="1313210528"/>
+        <c:axId val="1313691840"/>
+        <c:axId val="1313525632"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1313208048"/>
+        <c:axId val="1313691840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>Local</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>Work</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>Size</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2591,7 +3082,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1313210528"/>
+        <c:crossAx val="1313525632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2599,7 +3090,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1313210528"/>
+        <c:axId val="1313525632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2619,6 +3110,87 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>Mega</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+                  <a:t>Multiplies-Add</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+                  <a:t>Per</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+                  <a:t>Second</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2649,7 +3221,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1313208048"/>
+        <c:crossAx val="1313691840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2662,7 +3234,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="r"/>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -2745,6 +3317,40 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>Multiply-Add</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>Performance</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -2852,22 +3458,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>17.284</c:v>
+                  <c:v>12.196</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1245.748</c:v>
+                  <c:v>293.998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1471.805</c:v>
+                  <c:v>314.318</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2892.217</c:v>
+                  <c:v>338.996</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4771.471</c:v>
+                  <c:v>350.037</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10259.801</c:v>
+                  <c:v>356.878</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2945,22 +3551,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>16.57</c:v>
+                  <c:v>12.775</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>723.47</c:v>
+                  <c:v>749.675</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1887.367</c:v>
+                  <c:v>840.4349999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4359.349</c:v>
+                  <c:v>1145.398</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5217.945</c:v>
+                  <c:v>1280.855</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10002.001</c:v>
+                  <c:v>1358.077</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3038,22 +3644,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>18.933</c:v>
+                  <c:v>12.507</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1042.739</c:v>
+                  <c:v>1121.229</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2069.397</c:v>
+                  <c:v>1637.602</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3064.457</c:v>
+                  <c:v>2630.931</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5094.694</c:v>
+                  <c:v>3629.013</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9275.523999999999</c:v>
+                  <c:v>4446.899</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3131,22 +3737,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>18.504</c:v>
+                  <c:v>12.503</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1265.333</c:v>
+                  <c:v>1006.628</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1940.981</c:v>
+                  <c:v>1820.887</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4940.194</c:v>
+                  <c:v>3461.241</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5162.239</c:v>
+                  <c:v>4598.781</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8909.114</c:v>
+                  <c:v>6537.135</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3224,22 +3830,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>16.594</c:v>
+                  <c:v>17.969</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>863.966</c:v>
+                  <c:v>1349.102</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2168.294</c:v>
+                  <c:v>2526.458</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3192.945</c:v>
+                  <c:v>3716.582</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5323.639</c:v>
+                  <c:v>5983.486</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9204.333</c:v>
+                  <c:v>8567.375</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3317,22 +3923,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>13.355</c:v>
+                  <c:v>12.858</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1006.203</c:v>
+                  <c:v>1015.784</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1788.921</c:v>
+                  <c:v>2587.173</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4288.269</c:v>
+                  <c:v>3607.215</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5184.624</c:v>
+                  <c:v>6065.366</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9324.477999999999</c:v>
+                  <c:v>7923.491</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3416,22 +4022,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>12.901</c:v>
+                  <c:v>16.946</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>897.9349999999999</c:v>
+                  <c:v>1334.807</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2385.285</c:v>
+                  <c:v>2472.643</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3854.598</c:v>
+                  <c:v>3828.932</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7212.185</c:v>
+                  <c:v>5989.895</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8906.049</c:v>
+                  <c:v>8338.278</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3448,16 +4054,89 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1313253504"/>
-        <c:axId val="1313255984"/>
+        <c:axId val="1313603232"/>
+        <c:axId val="1312910416"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1313253504"/>
+        <c:axId val="1313603232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>Global</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+                  <a:t>Work</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+                  <a:t>Size</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3495,7 +4174,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1313255984"/>
+        <c:crossAx val="1312910416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3503,7 +4182,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1313255984"/>
+        <c:axId val="1312910416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3523,6 +4202,95 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>Mega</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+                  <a:t>Multiplies</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+                  <a:t>Add</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+                  <a:t>Per</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+                  <a:t>Second</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3553,7 +4321,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1313253504"/>
+        <c:crossAx val="1313603232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3566,7 +4334,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="r"/>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -3865,11 +4633,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1313263312"/>
-        <c:axId val="1313267360"/>
+        <c:axId val="1313649200"/>
+        <c:axId val="1313651920"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1313263312"/>
+        <c:axId val="1313649200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4007,12 +4775,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1313267360"/>
+        <c:crossAx val="1313651920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1313267360"/>
+        <c:axId val="1313651920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4165,7 +4933,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1313263312"/>
+        <c:crossAx val="1313649200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7009,13 +7777,13 @@
       <xdr:col>9</xdr:col>
       <xdr:colOff>109395</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>168745</xdr:rowOff>
+      <xdr:rowOff>184233</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>531890</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>95312</xdr:rowOff>
+      <xdr:rowOff>110800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7362,8 +8130,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="101" workbookViewId="0">
-      <selection activeCell="K33" sqref="K33"/>
+    <sheetView tabSelected="1" topLeftCell="H8" zoomScale="164" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7574,22 +8342,22 @@
         <v>1</v>
       </c>
       <c r="B14">
-        <v>17.283999999999999</v>
+        <v>12.196</v>
       </c>
       <c r="C14">
-        <v>1245.748</v>
+        <v>293.99799999999999</v>
       </c>
       <c r="D14">
-        <v>1471.8050000000001</v>
+        <v>314.31799999999998</v>
       </c>
       <c r="E14">
-        <v>2892.2170000000001</v>
+        <v>338.99599999999998</v>
       </c>
       <c r="F14">
-        <v>4771.4709999999995</v>
+        <v>350.03699999999998</v>
       </c>
       <c r="G14">
-        <v>10259.800999999999</v>
+        <v>356.87799999999999</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -7597,22 +8365,22 @@
         <v>4</v>
       </c>
       <c r="B15">
-        <v>16.57</v>
+        <v>12.775</v>
       </c>
       <c r="C15">
-        <v>723.47</v>
+        <v>749.67499999999995</v>
       </c>
       <c r="D15">
-        <v>1887.367</v>
+        <v>840.43499999999995</v>
       </c>
       <c r="E15">
-        <v>4359.3490000000002</v>
+        <v>1145.3979999999999</v>
       </c>
       <c r="F15">
-        <v>5217.9449999999997</v>
+        <v>1280.855</v>
       </c>
       <c r="G15">
-        <v>10002.001</v>
+        <v>1358.077</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -7620,22 +8388,22 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>18.933</v>
+        <v>12.507</v>
       </c>
       <c r="C16">
-        <v>1042.739</v>
+        <v>1121.229</v>
       </c>
       <c r="D16">
-        <v>2069.3969999999999</v>
+        <v>1637.6020000000001</v>
       </c>
       <c r="E16">
-        <v>3064.4569999999999</v>
+        <v>2630.931</v>
       </c>
       <c r="F16">
-        <v>5094.6940000000004</v>
+        <v>3629.0129999999999</v>
       </c>
       <c r="G16">
-        <v>9275.5239999999994</v>
+        <v>4446.8990000000003</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -7643,22 +8411,22 @@
         <v>32</v>
       </c>
       <c r="B17">
-        <v>18.504000000000001</v>
+        <v>12.503</v>
       </c>
       <c r="C17">
-        <v>1265.3330000000001</v>
+        <v>1006.628</v>
       </c>
       <c r="D17">
-        <v>1940.981</v>
+        <v>1820.8869999999999</v>
       </c>
       <c r="E17">
-        <v>4940.1940000000004</v>
+        <v>3461.241</v>
       </c>
       <c r="F17">
-        <v>5162.2389999999996</v>
+        <v>4598.7809999999999</v>
       </c>
       <c r="G17">
-        <v>8909.1139999999996</v>
+        <v>6537.1350000000002</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -7666,22 +8434,22 @@
         <v>128</v>
       </c>
       <c r="B18">
-        <v>16.594000000000001</v>
+        <v>17.969000000000001</v>
       </c>
       <c r="C18">
-        <v>863.96600000000001</v>
+        <v>1349.1020000000001</v>
       </c>
       <c r="D18">
-        <v>2168.2939999999999</v>
+        <v>2526.4580000000001</v>
       </c>
       <c r="E18">
-        <v>3192.9450000000002</v>
+        <v>3716.5819999999999</v>
       </c>
       <c r="F18">
-        <v>5323.6390000000001</v>
+        <v>5983.4859999999999</v>
       </c>
       <c r="G18">
-        <v>9204.3330000000005</v>
+        <v>8567.375</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -7689,22 +8457,22 @@
         <v>512</v>
       </c>
       <c r="B19">
-        <v>13.355</v>
+        <v>12.858000000000001</v>
       </c>
       <c r="C19">
-        <v>1006.203</v>
+        <v>1015.784</v>
       </c>
       <c r="D19">
-        <v>1788.921</v>
+        <v>2587.1729999999998</v>
       </c>
       <c r="E19">
-        <v>4288.2690000000002</v>
+        <v>3607.2150000000001</v>
       </c>
       <c r="F19">
-        <v>5184.6239999999998</v>
+        <v>6065.366</v>
       </c>
       <c r="G19">
-        <v>9324.4779999999992</v>
+        <v>7923.491</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
@@ -7712,22 +8480,22 @@
         <v>1024</v>
       </c>
       <c r="B20">
-        <v>12.901</v>
+        <v>16.946000000000002</v>
       </c>
       <c r="C20">
-        <v>897.93499999999995</v>
+        <v>1334.807</v>
       </c>
       <c r="D20">
-        <v>2385.2849999999999</v>
+        <v>2472.643</v>
       </c>
       <c r="E20">
-        <v>3854.598</v>
+        <v>3828.9319999999998</v>
       </c>
       <c r="F20">
-        <v>7212.1850000000004</v>
+        <v>5989.8950000000004</v>
       </c>
       <c r="G20">
-        <v>8906.0490000000009</v>
+        <v>8338.2780000000002</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
